--- a/data/db/states.xlsx
+++ b/data/db/states.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nburmeister\Documents\_Development\AssetManagementPortal\app\data\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nburmeister\Documents\_Development\AssetManagementPortal\data\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7867F4BA-559B-44D4-A61A-147A9A7161DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE2BD50-6FC2-4B60-B350-19D58C56D83E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="37470" windowHeight="16440" xr2:uid="{F73C7196-1887-4C80-B5F2-5AF594F13010}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{F73C7196-1887-4C80-B5F2-5AF594F13010}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t>AK</t>
   </si>
@@ -505,6 +507,12 @@
   </si>
   <si>
     <t>division</t>
+  </si>
+  <si>
+    <t>Multiple</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -539,8 +547,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7F4C58-4C5C-422C-A48B-7504A2AA34F5}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,6 +1762,23 @@
         <v>8</v>
       </c>
     </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="1">
+        <v>57</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/db/states.xlsx
+++ b/data/db/states.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nburmeister\Documents\_Development\AssetManagementPortal\data\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE2BD50-6FC2-4B60-B350-19D58C56D83E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411B1EE5-46F7-4D9E-98BD-F31805A46731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{F73C7196-1887-4C80-B5F2-5AF594F13010}"/>
+    <workbookView xWindow="-6195" yWindow="-16320" windowWidth="38640" windowHeight="15990" xr2:uid="{F73C7196-1887-4C80-B5F2-5AF594F13010}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -869,7 +869,7 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
